--- a/leetcode_2_check_task.xlsx
+++ b/leetcode_2_check_task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shelter/Documents/Z-Leetcode/作业/第二周/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7575353-CA08-AC4F-B6BD-FB19B7E36F1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87B96A6-9925-DE49-8CFA-CC99BA68C271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>Middle of the Linked List    </t>
+  </si>
+  <si>
+    <t>二分法做一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理边界点通过最外层加一圈的方法，想了解其他方法，还有问题是：https://leetcode-cn.com/problems/game-of-life/comments/36804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puts inc at startIndex and -inc at endIndex + 1 不理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -269,12 +281,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,10 +349,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -670,7 +727,7 @@
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -697,7 +754,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -706,10 +763,15 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>289</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -718,10 +780,15 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>274</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -730,10 +797,12 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>376</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -742,10 +811,12 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>277</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -754,10 +825,12 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>370</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -766,10 +839,18 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>296</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -778,10 +859,12 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -793,7 +876,7 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>82</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -805,7 +888,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -817,7 +900,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>203</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -830,7 +913,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>237</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -842,7 +925,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -854,7 +937,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -866,7 +949,7 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -878,7 +961,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>206</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -890,7 +973,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
+      <c r="A18" s="7">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -902,7 +985,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
+      <c r="A19" s="7">
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -914,7 +997,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
+      <c r="A20" s="7">
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -926,7 +1009,7 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
+      <c r="A21" s="7">
         <v>445</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -938,7 +1021,7 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
+      <c r="A22" s="7">
         <v>141</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -950,7 +1033,7 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
+      <c r="A23" s="7">
         <v>142</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -962,7 +1045,7 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1">
+      <c r="A24" s="7">
         <v>708</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -974,7 +1057,7 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
+      <c r="A25" s="7">
         <v>725</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -986,7 +1069,7 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -998,7 +1081,7 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>143</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1010,7 +1093,7 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>147</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1022,7 +1105,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>148</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1034,7 +1117,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1046,7 +1129,7 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <v>138</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1058,7 +1141,7 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1">
+      <c r="A32" s="8">
         <v>160</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1070,7 +1153,7 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>234</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1082,7 +1165,7 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1">
+      <c r="A34" s="10">
         <v>328</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1094,7 +1177,7 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1">
+      <c r="A35" s="10">
         <v>369</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1106,7 +1189,7 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1">
+      <c r="A36" s="10">
         <v>379</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1118,7 +1201,7 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1">
+      <c r="A37" s="10">
         <v>426</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1130,7 +1213,7 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1">
+      <c r="A38" s="10">
         <v>430</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1142,7 +1225,7 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1">
+      <c r="A39" s="10">
         <v>707</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1154,7 +1237,7 @@
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1">
+      <c r="A40" s="10">
         <v>817</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1166,7 +1249,7 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1">
+      <c r="A41" s="10">
         <v>876</v>
       </c>
       <c r="B41" s="3" t="s">

--- a/leetcode_2_check_task.xlsx
+++ b/leetcode_2_check_task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87B96A6-9925-DE49-8CFA-CC99BA68C271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E14DD-2007-9444-89F3-E49DBF245EA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="30360" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,21 @@
   </si>
   <si>
     <t>puts inc at startIndex and -inc at endIndex + 1 不理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归方法？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合了数组，看看其他方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>不太理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +295,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -336,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +389,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,7 +743,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E15" sqref="E15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -766,6 +793,9 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" t="s">
         <v>52</v>
       </c>
@@ -783,6 +813,9 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" t="s">
         <v>53</v>
       </c>
@@ -800,6 +833,9 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4">
@@ -814,6 +850,9 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5">
@@ -828,6 +867,9 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5">
@@ -862,6 +904,9 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4">
@@ -873,7 +918,12 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6">
@@ -885,7 +935,12 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
@@ -897,7 +952,12 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6">
@@ -909,7 +969,12 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
@@ -922,7 +987,12 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6">
@@ -934,7 +1004,18 @@
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6">
@@ -946,7 +1027,18 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6">
@@ -958,9 +1050,14 @@
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="6">
         <v>206</v>
       </c>
@@ -970,9 +1067,17 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="7">
         <v>2</v>
       </c>
@@ -984,7 +1089,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:7">
       <c r="A19" s="7">
         <v>21</v>
       </c>
@@ -996,7 +1101,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:7">
       <c r="A20" s="7">
         <v>23</v>
       </c>
@@ -1008,7 +1113,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:7">
       <c r="A21" s="7">
         <v>445</v>
       </c>
@@ -1020,7 +1125,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:7">
       <c r="A22" s="7">
         <v>141</v>
       </c>
@@ -1032,7 +1137,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:7">
       <c r="A23" s="7">
         <v>142</v>
       </c>
@@ -1044,7 +1149,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:7">
       <c r="A24" s="7">
         <v>708</v>
       </c>
@@ -1056,7 +1161,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:7">
       <c r="A25" s="7">
         <v>725</v>
       </c>
@@ -1068,7 +1173,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:7">
       <c r="A26" s="8">
         <v>86</v>
       </c>
@@ -1080,7 +1185,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:7">
       <c r="A27" s="8">
         <v>143</v>
       </c>
@@ -1092,7 +1197,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:7">
       <c r="A28" s="8">
         <v>147</v>
       </c>
@@ -1104,7 +1209,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:7">
       <c r="A29" s="8">
         <v>148</v>
       </c>
@@ -1116,7 +1221,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:7">
       <c r="A30" s="9">
         <v>109</v>
       </c>
@@ -1128,7 +1233,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:7">
       <c r="A31" s="8">
         <v>138</v>
       </c>
@@ -1140,7 +1245,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:7">
       <c r="A32" s="8">
         <v>160</v>
       </c>
@@ -1260,8 +1365,13 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:4" ht="21">
+      <c r="A42" s="11">
+        <v>24</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
@@ -1523,8 +1633,9 @@
     <hyperlink ref="B6" r:id="rId38" xr:uid="{1026EA4C-50FD-B24B-90E7-89A15893C981}"/>
     <hyperlink ref="B7" r:id="rId39" xr:uid="{76968CDF-D1B5-6345-9430-927F40C60A5E}"/>
     <hyperlink ref="B8" r:id="rId40" xr:uid="{F73B1C5C-4B1C-CA47-91BC-A32BE0142582}"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://github.com/Rosevil1874/LeetCode/tree/master/Python-Solution/24_Swap-Nodes-in-Pairs" xr:uid="{AF6B58E6-5AEA-3F4B-907B-B79EEE734446}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/leetcode_2_check_task.xlsx
+++ b/leetcode_2_check_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E14DD-2007-9444-89F3-E49DBF245EA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B77CFA-A76D-ED4E-9483-931B4A6F6840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30360" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,99 +128,104 @@
     <t>Reverse Linked List    </t>
   </si>
   <si>
+    <t>Merge Two Sorted Lists    </t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists    </t>
+  </si>
+  <si>
+    <t>Add Two Numbers II    </t>
+  </si>
+  <si>
+    <t>Linked List Cycle    </t>
+  </si>
+  <si>
+    <t>Linked List Cycle II    </t>
+  </si>
+  <si>
+    <t>Insert into a Cyclic Sorted List    </t>
+  </si>
+  <si>
+    <t>Split Linked List in Parts    </t>
+  </si>
+  <si>
+    <t>Partition List    </t>
+  </si>
+  <si>
+    <t>Reorder List    </t>
+  </si>
+  <si>
+    <t>Insertion Sort List    </t>
+  </si>
+  <si>
+    <t>Sort List    </t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer    </t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists    </t>
+  </si>
+  <si>
+    <t>Palindrome Linked List    </t>
+  </si>
+  <si>
+    <t>Odd Even Linked List    </t>
+  </si>
+  <si>
+    <t>Plus One Linked List    </t>
+  </si>
+  <si>
+    <t>Design Phone Directory    </t>
+  </si>
+  <si>
+    <t>Convert Binary Search Tree to Sorted Doubly Linked List    </t>
+  </si>
+  <si>
+    <t>Flatten a Multilevel Doubly Linked List    </t>
+  </si>
+  <si>
+    <t>Design Linked List    </t>
+  </si>
+  <si>
+    <t>Linked List Components    </t>
+  </si>
+  <si>
+    <t>Middle of the Linked List    </t>
+  </si>
+  <si>
+    <t>二分法做一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理边界点通过最外层加一圈的方法，想了解其他方法，还有问题是：https://leetcode-cn.com/problems/game-of-life/comments/36804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puts inc at startIndex and -inc at endIndex + 1 不理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归方法？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合了数组，看看其他方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>不太理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Add Two Numbers    </t>
-  </si>
-  <si>
-    <t>Merge Two Sorted Lists    </t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists    </t>
-  </si>
-  <si>
-    <t>Add Two Numbers II    </t>
-  </si>
-  <si>
-    <t>Linked List Cycle    </t>
-  </si>
-  <si>
-    <t>Linked List Cycle II    </t>
-  </si>
-  <si>
-    <t>Insert into a Cyclic Sorted List    </t>
-  </si>
-  <si>
-    <t>Split Linked List in Parts    </t>
-  </si>
-  <si>
-    <t>Partition List    </t>
-  </si>
-  <si>
-    <t>Reorder List    </t>
-  </si>
-  <si>
-    <t>Insertion Sort List    </t>
-  </si>
-  <si>
-    <t>Sort List    </t>
-  </si>
-  <si>
-    <t>Copy List with Random Pointer    </t>
-  </si>
-  <si>
-    <t>Intersection of Two Linked Lists    </t>
-  </si>
-  <si>
-    <t>Palindrome Linked List    </t>
-  </si>
-  <si>
-    <t>Odd Even Linked List    </t>
-  </si>
-  <si>
-    <t>Plus One Linked List    </t>
-  </si>
-  <si>
-    <t>Design Phone Directory    </t>
-  </si>
-  <si>
-    <t>Convert Binary Search Tree to Sorted Doubly Linked List    </t>
-  </si>
-  <si>
-    <t>Flatten a Multilevel Doubly Linked List    </t>
-  </si>
-  <si>
-    <t>Design Linked List    </t>
-  </si>
-  <si>
-    <t>Linked List Components    </t>
-  </si>
-  <si>
-    <t>Middle of the Linked List    </t>
-  </si>
-  <si>
-    <t>二分法做一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理边界点通过最外层加一圈的方法，想了解其他方法，还有问题是：https://leetcode-cn.com/problems/game-of-life/comments/36804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puts inc at startIndex and -inc at endIndex + 1 不理解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归方法？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结合了数组，看看其他方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两两交换链表中的节点</t>
-  </si>
-  <si>
-    <t>不太理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu y ta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,6 +306,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -357,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +407,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +758,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -797,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -817,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -888,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1014,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1037,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1074,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1082,79 +1097,94 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7">
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7">
         <v>445</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7">
         <v>141</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20">
       <c r="A23" s="7">
         <v>142</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="7">
         <v>708</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1166,7 +1196,7 @@
         <v>725</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1178,7 +1208,7 @@
         <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1190,7 +1220,7 @@
         <v>143</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1202,7 +1232,7 @@
         <v>147</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1214,7 +1244,7 @@
         <v>148</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1238,7 +1268,7 @@
         <v>138</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1250,7 +1280,7 @@
         <v>160</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1262,7 +1292,7 @@
         <v>234</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1274,7 +1304,7 @@
         <v>328</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1286,7 +1316,7 @@
         <v>369</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -1298,7 +1328,7 @@
         <v>379</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
@@ -1310,7 +1340,7 @@
         <v>426</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1322,7 +1352,7 @@
         <v>430</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
@@ -1334,7 +1364,7 @@
         <v>707</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -1346,7 +1376,7 @@
         <v>817</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
@@ -1358,7 +1388,7 @@
         <v>876</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -1370,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>

--- a/leetcode_2_check_task.xlsx
+++ b/leetcode_2_check_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B77CFA-A76D-ED4E-9483-931B4A6F6840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0755B1A-ACA2-CD49-B796-27D0DAC13C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30360" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -758,7 +758,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1201,7 +1201,9 @@
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8">

--- a/leetcode_2_check_task.xlsx
+++ b/leetcode_2_check_task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0755B1A-ACA2-CD49-B796-27D0DAC13C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8720B903-3B4D-8E45-9A63-B62AC552751F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,65 +167,82 @@
     <t>Intersection of Two Linked Lists    </t>
   </si>
   <si>
+    <t>Odd Even Linked List    </t>
+  </si>
+  <si>
+    <t>Plus One Linked List    </t>
+  </si>
+  <si>
+    <t>Design Phone Directory    </t>
+  </si>
+  <si>
+    <t>Convert Binary Search Tree to Sorted Doubly Linked List    </t>
+  </si>
+  <si>
+    <t>Flatten a Multilevel Doubly Linked List    </t>
+  </si>
+  <si>
+    <t>Design Linked List    </t>
+  </si>
+  <si>
+    <t>Linked List Components    </t>
+  </si>
+  <si>
+    <t>Middle of the Linked List    </t>
+  </si>
+  <si>
+    <t>二分法做一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理边界点通过最外层加一圈的方法，想了解其他方法，还有问题是：https://leetcode-cn.com/problems/game-of-life/comments/36804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puts inc at startIndex and -inc at endIndex + 1 不理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归方法？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合了数组，看看其他方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>不太理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Two Numbers    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu y ta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写的太麻烦了，需要简化下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从前向后一次对比的，但是动画是从后向前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Palindrome Linked List    </t>
-  </si>
-  <si>
-    <t>Odd Even Linked List    </t>
-  </si>
-  <si>
-    <t>Plus One Linked List    </t>
-  </si>
-  <si>
-    <t>Design Phone Directory    </t>
-  </si>
-  <si>
-    <t>Convert Binary Search Tree to Sorted Doubly Linked List    </t>
-  </si>
-  <si>
-    <t>Flatten a Multilevel Doubly Linked List    </t>
-  </si>
-  <si>
-    <t>Design Linked List    </t>
-  </si>
-  <si>
-    <t>Linked List Components    </t>
-  </si>
-  <si>
-    <t>Middle of the Linked List    </t>
-  </si>
-  <si>
-    <t>二分法做一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理边界点通过最外层加一圈的方法，想了解其他方法，还有问题是：https://leetcode-cn.com/problems/game-of-life/comments/36804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puts inc at startIndex and -inc at endIndex + 1 不理解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归方法？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结合了数组，看看其他方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两两交换链表中的节点</t>
-  </si>
-  <si>
-    <t>不太理解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add Two Numbers    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu y ta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小错误太多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇妙的方法http://www.cnblogs.com/grandyang/p/4128461.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -812,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -832,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -903,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1029,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1052,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1089,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1097,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -1176,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1189,7 +1206,9 @@
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="7">
@@ -1215,7 +1234,9 @@
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8">
@@ -1227,7 +1248,12 @@
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8">
@@ -1239,7 +1265,12 @@
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8">
@@ -1251,7 +1282,9 @@
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9">
@@ -1287,152 +1320,162 @@
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="8">
         <v>234</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="10">
         <v>328</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:7">
       <c r="A35" s="10">
         <v>369</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:7">
       <c r="A36" s="10">
         <v>379</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:7">
       <c r="A37" s="10">
         <v>426</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:7">
       <c r="A38" s="10">
         <v>430</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:7">
       <c r="A39" s="10">
         <v>707</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:7">
       <c r="A40" s="10">
         <v>817</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:7">
       <c r="A41" s="10">
         <v>876</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" ht="21">
+    <row r="42" spans="1:7" ht="21">
       <c r="A42" s="11">
         <v>24</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:7">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:7">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:7">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:7">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:7">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:7">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>

--- a/leetcode_2_check_task.xlsx
+++ b/leetcode_2_check_task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8720B903-3B4D-8E45-9A63-B62AC552751F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1589364-BF28-EA48-ABC7-12B4FFD0B0A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="29500" yWindow="620" windowWidth="28800" windowHeight="16540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bu y ta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>写的太麻烦了，需要简化下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +239,14 @@
   </si>
   <si>
     <t>奇妙的方法http://www.cnblogs.com/grandyang/p/4128461.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太数组，可以用循环链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看别人的思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1192,9 +1196,7 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="7">
@@ -1252,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1269,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1308,7 +1310,9 @@
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8">
@@ -1324,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1332,7 +1336,7 @@
         <v>234</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1341,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1354,7 +1358,12 @@
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="10">
@@ -1414,7 +1423,12 @@
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="10">
@@ -1438,7 +1452,9 @@
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="21">
       <c r="A42" s="11">

--- a/leetcode_2_check_task.xlsx
+++ b/leetcode_2_check_task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1589364-BF28-EA48-ABC7-12B4FFD0B0A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871A181E-9CA3-A14F-AB9A-B7E8D6D49190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29500" yWindow="620" windowWidth="28800" windowHeight="16540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,80 +173,85 @@
     <t>Plus One Linked List    </t>
   </si>
   <si>
+    <t>Convert Binary Search Tree to Sorted Doubly Linked List    </t>
+  </si>
+  <si>
+    <t>Flatten a Multilevel Doubly Linked List    </t>
+  </si>
+  <si>
+    <t>Design Linked List    </t>
+  </si>
+  <si>
+    <t>Linked List Components    </t>
+  </si>
+  <si>
+    <t>Middle of the Linked List    </t>
+  </si>
+  <si>
+    <t>二分法做一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理边界点通过最外层加一圈的方法，想了解其他方法，还有问题是：https://leetcode-cn.com/problems/game-of-life/comments/36804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puts inc at startIndex and -inc at endIndex + 1 不理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归方法？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合了数组，看看其他方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>不太理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Two Numbers    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写的太麻烦了，需要简化下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从前向后一次对比的，但是动画是从后向前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindrome Linked List    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小错误太多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇妙的方法http://www.cnblogs.com/grandyang/p/4128461.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太数组，可以用循环链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看别人的思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的list，使用dic？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Design Phone Directory    </t>
-  </si>
-  <si>
-    <t>Convert Binary Search Tree to Sorted Doubly Linked List    </t>
-  </si>
-  <si>
-    <t>Flatten a Multilevel Doubly Linked List    </t>
-  </si>
-  <si>
-    <t>Design Linked List    </t>
-  </si>
-  <si>
-    <t>Linked List Components    </t>
-  </si>
-  <si>
-    <t>Middle of the Linked List    </t>
-  </si>
-  <si>
-    <t>二分法做一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理边界点通过最外层加一圈的方法，想了解其他方法，还有问题是：https://leetcode-cn.com/problems/game-of-life/comments/36804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puts inc at startIndex and -inc at endIndex + 1 不理解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归方法？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结合了数组，看看其他方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两两交换链表中的节点</t>
-  </si>
-  <si>
-    <t>不太理解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add Two Numbers    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写的太麻烦了，需要简化下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从前向后一次对比的，但是动画是从后向前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palindrome Linked List    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小错误太多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇妙的方法http://www.cnblogs.com/grandyang/p/4128461.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不太数组，可以用循环链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看看别人的思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +339,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -390,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +445,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -833,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -853,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -911,20 +928,20 @@
       <c r="A7" s="5">
         <v>370</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1050,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1073,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1110,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1118,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -1254,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1271,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1328,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1336,7 +1353,7 @@
         <v>234</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1345,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1362,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1375,14 +1392,16 @@
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="10">
         <v>379</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
@@ -1394,7 +1413,7 @@
         <v>426</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1406,19 +1425,21 @@
         <v>430</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
         <v>707</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -1427,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1435,19 +1456,24 @@
         <v>817</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="10">
         <v>876</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -1461,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>

--- a/leetcode_2_check_task.xlsx
+++ b/leetcode_2_check_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871A181E-9CA3-A14F-AB9A-B7E8D6D49190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FE31A4-B24E-FE4A-AE1B-2FBB7B826CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>Design Phone Directory    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有写出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归方法的终止条件不太理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归操作不太明白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -849,6 +861,9 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
@@ -869,6 +884,9 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" t="s">
         <v>50</v>
       </c>
@@ -889,6 +907,9 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4">
@@ -906,6 +927,9 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5">
@@ -923,6 +947,9 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5">
@@ -940,6 +967,9 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" t="s">
         <v>51</v>
       </c>
@@ -960,6 +990,9 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4">
@@ -977,6 +1010,9 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6">
@@ -994,6 +1030,9 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
@@ -1011,6 +1050,9 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6">
@@ -1028,6 +1070,9 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
@@ -1046,6 +1091,9 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6">
@@ -1109,6 +1157,9 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6">
@@ -1126,6 +1177,9 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
       <c r="G17" t="s">
         <v>52</v>
       </c>
@@ -1143,6 +1197,9 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7">
@@ -1157,6 +1214,9 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
@@ -1171,6 +1231,9 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7">
@@ -1185,6 +1248,9 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7">
@@ -1199,6 +1265,9 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="20">
       <c r="A23" s="7">
@@ -1213,6 +1282,9 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7">
@@ -1228,6 +1300,9 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="7">
@@ -1242,6 +1317,9 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8">
@@ -1256,6 +1334,9 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8">
@@ -1270,6 +1351,9 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
       <c r="G27" t="s">
         <v>57</v>
       </c>
@@ -1287,6 +1371,9 @@
       <c r="D28" s="2">
         <v>1</v>
       </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
       <c r="G28" t="s">
         <v>58</v>
       </c>
@@ -1304,6 +1391,9 @@
       <c r="D29" s="2">
         <v>1</v>
       </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9">
@@ -1315,7 +1405,15 @@
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8">
@@ -1330,6 +1428,9 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8">
@@ -1344,6 +1445,9 @@
       <c r="D32" s="2">
         <v>1</v>
       </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
       <c r="G32" t="s">
         <v>61</v>
       </c>
@@ -1361,6 +1465,9 @@
       <c r="D33" s="2">
         <v>1</v>
       </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
       <c r="G33" t="s">
         <v>60</v>
       </c>
@@ -1378,6 +1485,9 @@
       <c r="D34" s="2">
         <v>1</v>
       </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
       <c r="G34" t="s">
         <v>63</v>
       </c>
@@ -1395,6 +1505,9 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="10">
@@ -1406,7 +1519,15 @@
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
@@ -1418,7 +1539,18 @@
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
@@ -1433,6 +1565,9 @@
       <c r="D38" s="2">
         <v>1</v>
       </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
@@ -1447,6 +1582,9 @@
       <c r="D39" s="2">
         <v>1</v>
       </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
       <c r="G39" t="s">
         <v>62</v>
       </c>
@@ -1464,6 +1602,9 @@
       <c r="D40" s="2">
         <v>1</v>
       </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
       <c r="G40" t="s">
         <v>64</v>
       </c>
@@ -1480,6 +1621,9 @@
       </c>
       <c r="D41" s="2">
         <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="21">
